--- a/biology/Zoologie/Arothron_diadematus/Arothron_diadematus.xlsx
+++ b/biology/Zoologie/Arothron_diadematus/Arothron_diadematus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poisson-globe masqué[1] (Arothron diadematus) est une espèce de poissons de la famille des tétraodontidés. Cette espèce est endémique de la mer Rouge[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poisson-globe masqué (Arothron diadematus) est une espèce de poissons de la famille des tétraodontidés. Cette espèce est endémique de la mer Rouge.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson-globe masqué peut atteindre les 30 cm[1]. Le corps est gris clair tandis qu'une bande sombre traverse ses yeux tel un bandeau ce qui lui a donné son nom vernaculaire : c'est pour mieux égarer les prédateurs comme les blennies à dents de sabre qui attaquent de préférence les yeux explique l'éthologiste Irenäus Eibl-Eibesfeldt[2]. Ce gris plus foncé se retrouve aussi près de la bouche et des nageoires pectorales.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson-globe masqué peut atteindre les 30 cm. Le corps est gris clair tandis qu'une bande sombre traverse ses yeux tel un bandeau ce qui lui a donné son nom vernaculaire : c'est pour mieux égarer les prédateurs comme les blennies à dents de sabre qui attaquent de préférence les yeux explique l'éthologiste Irenäus Eibl-Eibesfeldt. Ce gris plus foncé se retrouve aussi près de la bouche et des nageoires pectorales.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve Arothron diadematus près des récifs coralliens de la mer Rouge à des profondeurs allant de 5 à 20 m[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve Arothron diadematus près des récifs coralliens de la mer Rouge à des profondeurs allant de 5 à 20 m.
 </t>
         </is>
       </c>
